--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC</t>
-  </si>
-  <si>
-    <t>Accrual</t>
   </si>
   <si>
     <t>repaymenttransactionamount</t>
@@ -785,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +818,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19">
-        <v>10145.16</v>
+        <v>10045.16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,23 +964,22 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1120,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,28 +1171,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>1192</v>
+        <v>1279</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="12">
-        <v>42095</v>
+        <v>42019</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="11">
-        <v>200</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10045.16</v>
+      </c>
+      <c r="F2" s="13">
+        <v>10000</v>
       </c>
       <c r="G2" s="11">
-        <v>100</v>
+        <v>45.16</v>
       </c>
       <c r="H2" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -1209,139 +1205,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="12">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10000</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1190</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11">
-        <v>200</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>100</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>1279</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42019</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10145.16</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="J3" s="13">
         <v>10000</v>
       </c>
-      <c r="G5" s="11">
-        <v>45.16</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>1174</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42005</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>10000</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>repaymenttransactionamount</t>
+  </si>
+  <si>
+    <t>waittopageload</t>
+  </si>
+  <si>
+    <t>waittopageload2</t>
   </si>
 </sst>
 </file>
@@ -780,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,34 +807,50 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B3" s="16">
         <v>42019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="15">
-        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="19">
-        <v>10045.16</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="15">
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19">
+        <v>10045.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -842,7 +864,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +986,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1141,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>waittopageload</t>
-  </si>
-  <si>
-    <t>waittopageload2</t>
   </si>
 </sst>
 </file>
@@ -786,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,17 +837,9 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1140,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId4"/>
     <sheet name="Transactions" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>waittopageload</t>
+  </si>
+  <si>
+    <t>Accrual</t>
   </si>
 </sst>
 </file>
@@ -305,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,12 +340,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +661,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +682,7 @@
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +830,7 @@
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <v>42019</v>
       </c>
     </row>
@@ -831,7 +846,7 @@
       <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>10045.16</v>
       </c>
     </row>
@@ -845,6 +860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1087,7 +1103,7 @@
       <c r="D3" s="12">
         <v>42019</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="13">
         <v>10000</v>
       </c>
@@ -1127,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="K2:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1164,34 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1180,73 +1223,101 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1279</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>126</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="20">
         <v>42019</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="19">
+        <v>145.16</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>45.16</v>
+      </c>
+      <c r="H2" s="19">
+        <v>100</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>125</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E3" s="21">
         <v>10045.16</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F3" s="22">
         <v>10000</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G3" s="19">
         <v>45.16</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1174</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>121</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C4" s="20">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E4" s="22">
         <v>10000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
         <v>10000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -11,8 +11,7 @@
     <sheet name="Prepay Loan" sheetId="6" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId4"/>
-    <sheet name="Transactions" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -869,7 +868,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,50 +1142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K2:L4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -203,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,6 +371,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -413,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,13 +1048,14 @@
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,20 +1092,21 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -1088,8 +1132,9 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1119,18 +1164,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>10045.16</v>
+        <v>45.16</v>
       </c>
       <c r="L3" s="14">
         <v>10045.16</v>
       </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
+      <c r="M3" s="14"/>
       <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
